--- a/data/trans_orig/P63C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2E25E4-E605-40E9-B494-EF93F0B5F2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{101ABD6A-80E3-426A-ABD4-FE8F573E2C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7310E8FB-6B1C-43F7-9328-A1B199F8536B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17BF2FAA-091F-4471-ACC1-BB7F425473A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="652">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2007 (Tasa respuesta: 76,27%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>73,65%</t>
   </si>
   <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>82,41%</t>
@@ -89,16 +89,16 @@
     <t>79,38%</t>
   </si>
   <si>
-    <t>85,19%</t>
+    <t>85,32%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
   </si>
   <si>
     <t>Capataz, supervisor o encargado</t>
@@ -107,7 +107,7 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>6,5%</t>
@@ -119,1912 +119,1882 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, sin asalariados</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2012 (Tasa respuesta: 79,33%)</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2015 (Tasa respuesta: 79,68%)</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 83,56%)</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Gerente de una empresa con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, sin asalariados</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2012 (Tasa respuesta: 79,33%)</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2015 (Tasa respuesta: 79,68%)</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 83,56%)</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>12,81%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>14,0%</t>
+    <t>13,98%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>11,25%</t>
+    <t>8,8%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856696D6-2466-471C-90E2-796C77040739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B17F1-6A5C-4522-8731-F8A7D9B1A09B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2848,10 +2818,10 @@
         <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3042,13 @@
         <v>11594</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3090,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -3102,13 +3072,13 @@
         <v>15564</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3093,13 @@
         <v>8396</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -3144,7 +3114,7 @@
         <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -3153,13 +3123,13 @@
         <v>10487</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3144,13 @@
         <v>84415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3189,13 +3159,13 @@
         <v>24902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3204,13 +3174,13 @@
         <v>109317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3195,13 @@
         <v>20395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3240,13 +3210,13 @@
         <v>2938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3255,13 +3225,13 @@
         <v>23333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3246,13 @@
         <v>133869</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>92</v>
@@ -3291,13 +3261,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>223</v>
@@ -3306,13 +3276,13 @@
         <v>229857</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3338,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3380,13 +3350,13 @@
         <v>343872</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -3395,13 +3365,13 @@
         <v>354515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>668</v>
@@ -3410,13 +3380,13 @@
         <v>698387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3401,13 @@
         <v>58089</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3446,13 +3416,13 @@
         <v>16643</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -3461,13 +3431,13 @@
         <v>74732</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3452,13 @@
         <v>6910</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3497,13 +3467,13 @@
         <v>1859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3512,10 +3482,10 @@
         <v>8769</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>151</v>
@@ -3548,13 +3518,13 @@
         <v>2988</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -3563,13 +3533,13 @@
         <v>20987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3554,13 @@
         <v>48715</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -3599,13 +3569,13 @@
         <v>16627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -3614,13 +3584,13 @@
         <v>65341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3605,13 @@
         <v>8233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3650,13 +3620,13 @@
         <v>4161</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3665,13 +3635,13 @@
         <v>12395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3656,13 @@
         <v>34209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3701,13 +3671,13 @@
         <v>18330</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -3716,13 +3686,13 @@
         <v>52539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3760,13 @@
         <v>2202511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>1751</v>
@@ -3805,13 +3775,13 @@
         <v>1810558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M28" s="7">
         <v>3901</v>
@@ -3820,13 +3790,13 @@
         <v>4013069</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3811,13 @@
         <v>189091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -3856,13 +3826,13 @@
         <v>39525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>224</v>
@@ -3871,13 +3841,13 @@
         <v>228616</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3862,13 @@
         <v>21415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -3907,13 +3877,13 @@
         <v>5829</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3922,13 +3892,13 @@
         <v>27244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3913,13 @@
         <v>28303</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3958,13 +3928,13 @@
         <v>5079</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -3973,13 +3943,13 @@
         <v>33383</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +3964,13 @@
         <v>161165</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -4009,13 +3979,13 @@
         <v>51774</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>205</v>
@@ -4024,13 +3994,13 @@
         <v>212939</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4015,13 @@
         <v>34985</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4060,13 +4030,13 @@
         <v>7099</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>37</v>
@@ -4075,13 +4045,13 @@
         <v>42085</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4066,13 @@
         <v>340873</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>203</v>
@@ -4111,13 +4081,13 @@
         <v>209499</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
         <v>542</v>
@@ -4126,13 +4096,13 @@
         <v>550372</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,7 +4158,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4207,7 +4177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E2C836-AA95-4E98-8B1E-5D12ADC0D1F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47998E-878C-48CF-9DFD-166C45A64B18}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4224,7 +4194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4331,13 +4301,13 @@
         <v>730661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>569</v>
@@ -4346,13 +4316,13 @@
         <v>612520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1246</v>
@@ -4361,13 +4331,13 @@
         <v>1343181</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4352,13 @@
         <v>24378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4403,7 +4373,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -4412,13 +4382,13 @@
         <v>26472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4403,13 @@
         <v>2029</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4448,13 +4418,13 @@
         <v>1977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4463,13 +4433,13 @@
         <v>4006</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4454,13 @@
         <v>3290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4499,13 +4469,13 @@
         <v>2029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4517,10 +4487,10 @@
         <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,13 +4505,13 @@
         <v>22620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -4550,13 +4520,13 @@
         <v>9215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -4586,10 +4556,10 @@
         <v>10037</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>262</v>
@@ -4601,13 +4571,13 @@
         <v>5235</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4616,13 +4586,13 @@
         <v>15272</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4607,13 @@
         <v>156287</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -4652,13 +4622,13 @@
         <v>99599</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -4667,13 +4637,13 @@
         <v>255885</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4711,13 @@
         <v>1345475</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H12" s="7">
         <v>1041</v>
@@ -4756,13 +4726,13 @@
         <v>1126190</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M12" s="7">
         <v>2306</v>
@@ -4771,13 +4741,13 @@
         <v>2471664</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4762,13 @@
         <v>92262</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4807,13 +4777,13 @@
         <v>29681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -4822,13 +4792,13 @@
         <v>121943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4813,13 @@
         <v>18297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4861,10 +4831,10 @@
         <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4873,13 +4843,13 @@
         <v>26675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,10 +4864,10 @@
         <v>9906</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>292</v>
@@ -4915,7 +4885,7 @@
         <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -4927,10 +4897,10 @@
         <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4915,13 @@
         <v>57380</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>172</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4975,13 +4945,13 @@
         <v>79697</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,13 +4966,13 @@
         <v>18399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5011,13 +4981,13 @@
         <v>9957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5026,13 +4996,13 @@
         <v>28356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5017,13 @@
         <v>193831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -5062,13 +5032,13 @@
         <v>105436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -5077,13 +5047,13 @@
         <v>299267</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,7 +5109,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5151,13 +5121,13 @@
         <v>301203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>296</v>
@@ -5166,13 +5136,13 @@
         <v>328718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>569</v>
@@ -5181,13 +5151,13 @@
         <v>629921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5172,13 @@
         <v>55719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5217,13 +5187,13 @@
         <v>16664</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
@@ -5232,13 +5202,13 @@
         <v>72383</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5223,13 @@
         <v>6870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5268,13 +5238,13 @@
         <v>3180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -5283,13 +5253,13 @@
         <v>10049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5274,13 @@
         <v>13157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5319,13 +5289,13 @@
         <v>1200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>338</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -5334,13 +5304,13 @@
         <v>14358</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>242</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5325,13 @@
         <v>23304</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5370,13 +5340,13 @@
         <v>8874</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -5385,13 +5355,13 @@
         <v>32178</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5376,13 @@
         <v>11302</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5421,13 +5391,13 @@
         <v>3020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5439,10 +5409,10 @@
         <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5427,13 @@
         <v>35705</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -5472,13 +5442,13 @@
         <v>28137</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -5487,13 +5457,13 @@
         <v>63842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5531,13 @@
         <v>2377338</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>362</v>
       </c>
       <c r="H28" s="7">
         <v>1906</v>
@@ -5576,28 +5546,28 @@
         <v>2067429</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M28" s="7">
         <v>4121</v>
       </c>
       <c r="N28" s="7">
-        <v>4444767</v>
+        <v>4444766</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5582,13 @@
         <v>172360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5627,13 +5597,13 @@
         <v>48438</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -5642,13 +5612,13 @@
         <v>220798</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5633,13 @@
         <v>27197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5678,13 +5648,13 @@
         <v>13535</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>251</v>
+        <v>337</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -5693,13 +5663,13 @@
         <v>40731</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>261</v>
+        <v>378</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5684,13 @@
         <v>26354</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>374</v>
+        <v>145</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -5729,13 +5699,13 @@
         <v>5287</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -5744,13 +5714,13 @@
         <v>31641</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>97</v>
+        <v>380</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,10 +5738,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -5780,13 +5750,13 @@
         <v>40405</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>245</v>
+        <v>385</v>
       </c>
       <c r="M32" s="7">
         <v>137</v>
@@ -5795,13 +5765,13 @@
         <v>143710</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5786,13 @@
         <v>39738</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H33" s="7">
         <v>16</v>
@@ -5831,13 +5801,13 @@
         <v>18212</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>386</v>
+        <v>147</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M33" s="7">
         <v>52</v>
@@ -5846,13 +5816,13 @@
         <v>57950</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>244</v>
+        <v>391</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>91</v>
+        <v>347</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5837,13 @@
         <v>385823</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>139</v>
+        <v>393</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H34" s="7">
         <v>212</v>
@@ -5882,13 +5852,13 @@
         <v>233172</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M34" s="7">
         <v>578</v>
@@ -5897,13 +5867,13 @@
         <v>618995</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,7 +5915,7 @@
         <v>5151</v>
       </c>
       <c r="N35" s="7">
-        <v>5558592</v>
+        <v>5558591</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>71</v>
@@ -5959,7 +5929,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5978,7 +5948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCF4B5D-BDFB-4554-8679-9B6F448D459A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FA94C5-7815-4EFC-B3F5-EFADE302EAF6}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5995,7 +5965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6102,13 +6072,13 @@
         <v>579207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H4" s="7">
         <v>422</v>
@@ -6117,13 +6087,13 @@
         <v>454461</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M4" s="7">
         <v>1004</v>
@@ -6132,13 +6102,13 @@
         <v>1033668</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6123,13 @@
         <v>24594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>108</v>
+        <v>412</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6168,13 +6138,13 @@
         <v>3814</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -6183,13 +6153,13 @@
         <v>28408</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>408</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6204,13 +6174,13 @@
         <v>1578</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6219,13 +6189,13 @@
         <v>1336</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6234,10 +6204,10 @@
         <v>2914</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>56</v>
@@ -6255,13 +6225,13 @@
         <v>1662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>409</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6276,7 +6246,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6285,13 +6255,13 @@
         <v>2621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6276,13 @@
         <v>13354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6321,13 +6291,13 @@
         <v>3734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -6336,13 +6306,13 @@
         <v>17088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>413</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6327,13 @@
         <v>7406</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>416</v>
+        <v>153</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6375,10 +6345,10 @@
         <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>151</v>
+        <v>421</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -6387,13 +6357,13 @@
         <v>10835</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>196</v>
+        <v>422</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6378,13 @@
         <v>104942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6423,13 +6393,13 @@
         <v>41712</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6438,13 +6408,13 @@
         <v>146654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6482,13 @@
         <v>1451479</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H12" s="7">
         <v>1195</v>
@@ -6527,13 +6497,13 @@
         <v>1238064</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>182</v>
+        <v>437</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>2561</v>
@@ -6542,13 +6512,13 @@
         <v>2689543</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6533,13 @@
         <v>75981</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6578,13 +6548,13 @@
         <v>20050</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>444</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -6593,13 +6563,13 @@
         <v>96031</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6584,13 @@
         <v>11926</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6635,7 +6605,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -6644,13 +6614,13 @@
         <v>14069</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6635,13 @@
         <v>15765</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>250</v>
+        <v>449</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6680,13 +6650,13 @@
         <v>1544</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -6695,13 +6665,13 @@
         <v>17309</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6686,13 @@
         <v>42662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6731,13 +6701,13 @@
         <v>19855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -6746,13 +6716,13 @@
         <v>62518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>449</v>
+        <v>47</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6737,13 @@
         <v>15432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6782,13 +6752,13 @@
         <v>9877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>452</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6797,13 +6767,13 @@
         <v>25309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>443</v>
+        <v>39</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6788,13 @@
         <v>219315</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -6833,13 +6803,13 @@
         <v>130581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M18" s="7">
         <v>333</v>
@@ -6848,13 +6818,13 @@
         <v>349897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,7 +6880,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6922,13 +6892,13 @@
         <v>346626</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H20" s="7">
         <v>383</v>
@@ -6937,13 +6907,13 @@
         <v>399744</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>467</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="M20" s="7">
         <v>702</v>
@@ -6952,13 +6922,13 @@
         <v>746370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +6943,13 @@
         <v>51631</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -6988,13 +6958,13 @@
         <v>23433</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>474</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -7003,13 +6973,13 @@
         <v>75064</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>477</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7024,13 +6994,13 @@
         <v>6542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>291</v>
+        <v>482</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7039,13 +7009,13 @@
         <v>4913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>478</v>
+        <v>86</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>479</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>480</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7054,13 +7024,13 @@
         <v>11454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7045,13 @@
         <v>4667</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7090,13 +7060,13 @@
         <v>1985</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -7105,13 +7075,13 @@
         <v>6652</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>251</v>
+        <v>156</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7096,13 @@
         <v>15273</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>51</v>
+        <v>484</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -7141,13 +7111,13 @@
         <v>13804</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>487</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -7156,13 +7126,13 @@
         <v>29076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>488</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7147,13 @@
         <v>9530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>489</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7192,13 +7162,13 @@
         <v>976</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7207,13 +7177,13 @@
         <v>10506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>490</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,10 +7198,10 @@
         <v>61488</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>493</v>
@@ -7243,13 +7213,13 @@
         <v>32909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>494</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M26" s="7">
         <v>87</v>
@@ -7258,13 +7228,13 @@
         <v>94398</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,16 +7299,16 @@
         <v>2267</v>
       </c>
       <c r="D28" s="7">
-        <v>2377312</v>
+        <v>2377313</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H28" s="7">
         <v>2000</v>
@@ -7347,13 +7317,13 @@
         <v>2092269</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M28" s="7">
         <v>4267</v>
@@ -7362,13 +7332,13 @@
         <v>4469582</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,13 +7353,13 @@
         <v>152206</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -7398,13 +7368,13 @@
         <v>47297</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>489</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>511</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>182</v>
@@ -7419,7 +7389,7 @@
         <v>513</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7404,13 @@
         <v>20046</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -7449,13 +7419,13 @@
         <v>8392</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>293</v>
+        <v>418</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -7464,13 +7434,13 @@
         <v>28438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>490</v>
+        <v>378</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>247</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7455,13 @@
         <v>22093</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>514</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7503,10 +7473,10 @@
         <v>41</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>515</v>
+        <v>38</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>39</v>
+        <v>456</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -7515,13 +7485,13 @@
         <v>26582</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>335</v>
+        <v>36</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>104</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7506,13 @@
         <v>71289</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>516</v>
+        <v>335</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -7551,13 +7521,13 @@
         <v>37393</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>486</v>
+        <v>285</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>515</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M32" s="7">
         <v>102</v>
@@ -7566,13 +7536,13 @@
         <v>108683</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7557,13 @@
         <v>32367</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -7602,13 +7572,13 @@
         <v>14283</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>452</v>
-      </c>
       <c r="L33" s="7" t="s">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="M33" s="7">
         <v>43</v>
@@ -7617,13 +7587,13 @@
         <v>46650</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>380</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7608,13 @@
         <v>385746</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>520</v>
+        <v>66</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H34" s="7">
         <v>193</v>
@@ -7653,13 +7623,13 @@
         <v>205202</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>523</v>
+        <v>136</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>524</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>305</v>
+        <v>525</v>
       </c>
       <c r="M34" s="7">
         <v>567</v>
@@ -7668,13 +7638,13 @@
         <v>590948</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,7 +7656,7 @@
         <v>2916</v>
       </c>
       <c r="D35" s="7">
-        <v>3061060</v>
+        <v>3061061</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>71</v>
@@ -7730,7 +7700,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7749,7 +7719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C1FC4C-444A-4DF8-94A4-F55D6F9095D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6D23AB-E3C8-4BE3-87D1-821A9FF7C470}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7766,7 +7736,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7873,13 +7843,13 @@
         <v>396120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H4" s="7">
         <v>671</v>
@@ -7888,13 +7858,13 @@
         <v>380119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>534</v>
+        <v>408</v>
       </c>
       <c r="M4" s="7">
         <v>1172</v>
@@ -7909,7 +7879,7 @@
         <v>536</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>537</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7894,13 @@
         <v>18492</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -7942,10 +7912,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>289</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -7954,13 +7924,13 @@
         <v>21399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>539</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>541</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,7 +7951,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>541</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7990,13 +7960,13 @@
         <v>431</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>201</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -8011,7 +7981,7 @@
         <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>148</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,13 +7996,13 @@
         <v>2465</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>201</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>543</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -8041,13 +8011,13 @@
         <v>2495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -8056,13 +8026,13 @@
         <v>4960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>450</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8047,13 @@
         <v>10691</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>545</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -8092,13 +8062,13 @@
         <v>7889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -8107,13 +8077,13 @@
         <v>18579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>421</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>547</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8128,13 +8098,13 @@
         <v>5646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>443</v>
+        <v>201</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -8149,7 +8119,7 @@
         <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>453</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -8158,13 +8128,13 @@
         <v>6345</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,13 +8149,13 @@
         <v>96939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -8194,13 +8164,13 @@
         <v>77439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -8209,13 +8179,13 @@
         <v>174378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8283,13 +8253,13 @@
         <v>1388042</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H12" s="7">
         <v>1942</v>
@@ -8298,13 +8268,13 @@
         <v>1475156</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M12" s="7">
         <v>3304</v>
@@ -8313,13 +8283,13 @@
         <v>2863199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,13 +8304,13 @@
         <v>151011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>564</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -8349,13 +8319,13 @@
         <v>44421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -8364,10 +8334,10 @@
         <v>195432</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>570</v>
@@ -8391,7 +8361,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -8400,13 +8370,13 @@
         <v>4058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>571</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -8415,13 +8385,13 @@
         <v>6379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>571</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8439,7 +8409,7 @@
         <v>572</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>573</v>
@@ -8451,13 +8421,13 @@
         <v>8283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>442</v>
+        <v>574</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
@@ -8466,13 +8436,13 @@
         <v>74374</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8487,13 +8457,13 @@
         <v>79758</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>575</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -8502,13 +8472,13 @@
         <v>46146</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>577</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -8520,10 +8490,10 @@
         <v>572</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>578</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>579</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8538,13 +8508,13 @@
         <v>21754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>581</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -8553,13 +8523,13 @@
         <v>4872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>580</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -8568,13 +8538,13 @@
         <v>26626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,13 +8559,13 @@
         <v>214943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>582</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>583</v>
       </c>
       <c r="H18" s="7">
         <v>232</v>
@@ -8604,13 +8574,13 @@
         <v>147982</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>459</v>
@@ -8619,13 +8589,13 @@
         <v>362925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>586</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,7 +8651,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8693,13 +8663,13 @@
         <v>383701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H20" s="7">
         <v>716</v>
@@ -8708,13 +8678,13 @@
         <v>497910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>593</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>1105</v>
@@ -8774,7 +8744,7 @@
         <v>158311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>603</v>
@@ -8795,13 +8765,13 @@
         <v>12518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>605</v>
+        <v>384</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -8810,13 +8780,13 @@
         <v>2788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>605</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -8828,10 +8798,10 @@
         <v>606</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,10 +8819,10 @@
         <v>607</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -8861,13 +8831,13 @@
         <v>8521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>259</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>514</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -8876,13 +8846,13 @@
         <v>26173</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>610</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8897,13 +8867,13 @@
         <v>21673</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -8912,13 +8882,13 @@
         <v>17859</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -8927,13 +8897,13 @@
         <v>39533</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>484</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8948,13 +8918,13 @@
         <v>12050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>615</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>616</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8963,13 +8933,13 @@
         <v>3418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>490</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>617</v>
+        <v>202</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -8978,13 +8948,13 @@
         <v>15468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>375</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8999,13 +8969,13 @@
         <v>82863</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -9014,13 +8984,13 @@
         <v>65527</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>621</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>622</v>
+        <v>427</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>623</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>186</v>
@@ -9029,13 +8999,13 @@
         <v>148390</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>625</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,13 +9073,13 @@
         <v>2167863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
         <v>3329</v>
@@ -9118,13 +9088,13 @@
         <v>2353186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
         <v>5581</v>
@@ -9133,13 +9103,13 @@
         <v>4521048</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9154,13 +9124,13 @@
         <v>266458</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>637</v>
+        <v>497</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="H29" s="7">
         <v>150</v>
@@ -9169,13 +9139,13 @@
         <v>108684</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>51</v>
+        <v>632</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="M29" s="7">
         <v>428</v>
@@ -9184,13 +9154,13 @@
         <v>375142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>634</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9205,13 +9175,13 @@
         <v>15640</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>643</v>
+        <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -9220,13 +9190,13 @@
         <v>7276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>580</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -9238,10 +9208,10 @@
         <v>59</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>294</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9256,13 +9226,13 @@
         <v>86209</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>167</v>
+        <v>615</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -9274,10 +9244,10 @@
         <v>42</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
@@ -9286,13 +9256,13 @@
         <v>105507</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>614</v>
+        <v>151</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>379</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>646</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9307,13 +9277,13 @@
         <v>112122</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>647</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>648</v>
+        <v>387</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>344</v>
+        <v>639</v>
       </c>
       <c r="H32" s="7">
         <v>92</v>
@@ -9322,13 +9292,13 @@
         <v>71894</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>151</v>
+        <v>641</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="M32" s="7">
         <v>229</v>
@@ -9337,13 +9307,13 @@
         <v>184016</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>542</v>
+        <v>643</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>651</v>
+        <v>577</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>652</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9358,13 +9328,13 @@
         <v>39450</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>653</v>
+        <v>251</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>95</v>
+        <v>350</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>447</v>
+        <v>297</v>
       </c>
       <c r="H33" s="7">
         <v>16</v>
@@ -9373,13 +9343,13 @@
         <v>8989</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>490</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>60</v>
@@ -9388,13 +9358,13 @@
         <v>48439</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>519</v>
+        <v>207</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9409,13 +9379,13 @@
         <v>394745</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="H34" s="7">
         <v>464</v>
@@ -9424,13 +9394,13 @@
         <v>290948</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>123</v>
+        <v>648</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>658</v>
+        <v>602</v>
       </c>
       <c r="M34" s="7">
         <v>906</v>
@@ -9439,13 +9409,13 @@
         <v>685693</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9487,7 +9457,7 @@
         <v>7293</v>
       </c>
       <c r="N35" s="7">
-        <v>5942762</v>
+        <v>5942763</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>71</v>
@@ -9501,7 +9471,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P63C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63C-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{101ABD6A-80E3-426A-ABD4-FE8F573E2C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{139F5C19-06F9-4011-A0D0-E35ABC1F34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{17BF2FAA-091F-4471-ACC1-BB7F425473A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{156EC0DE-0CCD-49BC-A088-179528E1D22F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="672">
   <si>
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2007 (Tasa respuesta: 76,27%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>73,65%</t>
   </si>
   <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>Capataz, supervisor o encargado</t>
@@ -107,1857 +107,1920 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>3,7%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Gerente de una empresa con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Trabajador por cuenta propia, sin asalariados</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2012 (Tasa respuesta: 79,33%)</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>6,5%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2016 (Tasa respuesta: 79,68%)</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>Gerente de una empresa con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Gerente de una empresa con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con menos de 10 asalariados</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 83,56%)</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, con 10 ó más asalariados</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>Trabajador por cuenta propia, sin asalariados</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2012 (Tasa respuesta: 79,33%)</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2015 (Tasa respuesta: 79,68%)</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 83,56%)</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
     <t>4,31%</t>
   </si>
   <si>
@@ -1983,9 +2046,6 @@
   </si>
   <si>
     <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
   </si>
   <si>
     <t>11,54%</t>
@@ -2406,7 +2466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99B17F1-6A5C-4522-8731-F8A7D9B1A09B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2335B6B-9C58-4F6B-8D7D-5D79626BD54A}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2818,16 +2878,16 @@
         <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7">
         <v>175</v>
@@ -2836,13 +2896,13 @@
         <v>172795</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
         <v>94</v>
@@ -2851,13 +2911,13 @@
         <v>95180</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>269</v>
@@ -2866,13 +2926,13 @@
         <v>267976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2947,13 @@
         <v>991912</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>607</v>
@@ -2902,13 +2962,13 @@
         <v>621323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>1605</v>
@@ -2917,18 +2977,18 @@
         <v>1613235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2940,13 +3000,13 @@
         <v>1128097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
         <v>914</v>
@@ -2955,13 +3015,13 @@
         <v>944026</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
         <v>1999</v>
@@ -2970,13 +3030,13 @@
         <v>2072123</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +3051,13 @@
         <v>81640</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -3006,7 +3066,7 @@
         <v>19002</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>86</v>
@@ -3042,7 +3102,7 @@
         <v>11594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>91</v>
@@ -3075,10 +3135,10 @@
         <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,10 +3186,10 @@
         <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3204,13 @@
         <v>84415</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3159,13 +3219,13 @@
         <v>24902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>105</v>
@@ -3174,13 +3234,13 @@
         <v>109317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3255,13 @@
         <v>20395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3210,13 +3270,13 @@
         <v>2938</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3225,19 +3285,19 @@
         <v>23333</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7">
         <v>131</v>
@@ -3246,13 +3306,13 @@
         <v>133869</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>92</v>
@@ -3261,13 +3321,13 @@
         <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>223</v>
@@ -3276,13 +3336,13 @@
         <v>229857</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3357,13 @@
         <v>1468405</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>1057</v>
@@ -3312,13 +3372,13 @@
         <v>1092918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>2473</v>
@@ -3327,18 +3387,18 @@
         <v>2561323</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3350,13 +3410,13 @@
         <v>343872</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H20" s="7">
         <v>337</v>
@@ -3365,13 +3425,13 @@
         <v>354515</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>668</v>
@@ -3380,13 +3440,13 @@
         <v>698387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3461,13 @@
         <v>58089</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -3416,13 +3476,13 @@
         <v>16643</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -3431,13 +3491,13 @@
         <v>74732</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3512,13 @@
         <v>6910</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3467,13 +3527,13 @@
         <v>1859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3482,13 +3542,13 @@
         <v>8769</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3563,13 @@
         <v>17999</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -3518,13 +3578,13 @@
         <v>2988</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>19</v>
@@ -3533,13 +3593,13 @@
         <v>20987</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3614,13 @@
         <v>48715</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -3569,13 +3629,13 @@
         <v>16627</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -3584,13 +3644,13 @@
         <v>65341</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3665,13 @@
         <v>8233</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3620,13 +3680,13 @@
         <v>4161</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3635,19 +3695,19 @@
         <v>12395</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7">
         <v>33</v>
@@ -3656,13 +3716,13 @@
         <v>34209</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3671,13 +3731,13 @@
         <v>18330</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -3686,13 +3746,13 @@
         <v>52539</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3767,13 @@
         <v>518026</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7">
         <v>394</v>
@@ -3722,13 +3782,13 @@
         <v>415124</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>888</v>
@@ -3737,13 +3797,13 @@
         <v>933150</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,13 +3820,13 @@
         <v>2202511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>1751</v>
@@ -3775,28 +3835,28 @@
         <v>1810558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
         <v>3901</v>
       </c>
       <c r="N28" s="7">
-        <v>4013069</v>
+        <v>4013070</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3871,13 @@
         <v>189091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -3826,13 +3886,13 @@
         <v>39525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M29" s="7">
         <v>224</v>
@@ -3841,13 +3901,13 @@
         <v>228616</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,10 +3922,10 @@
         <v>21415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>202</v>
@@ -3877,13 +3937,13 @@
         <v>5829</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -3892,10 +3952,10 @@
         <v>27244</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>206</v>
@@ -3913,13 +3973,13 @@
         <v>28303</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -3931,10 +3991,10 @@
         <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -3946,10 +4006,10 @@
         <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +4024,13 @@
         <v>161165</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -3979,13 +4039,13 @@
         <v>51774</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M32" s="7">
         <v>205</v>
@@ -3994,13 +4054,13 @@
         <v>212939</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,13 +4075,13 @@
         <v>34985</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4030,13 +4090,13 @@
         <v>7099</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>37</v>
@@ -4045,19 +4105,19 @@
         <v>42085</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="7">
         <v>339</v>
@@ -4066,13 +4126,13 @@
         <v>340873</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>203</v>
@@ -4081,13 +4141,13 @@
         <v>209499</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>542</v>
@@ -4096,13 +4156,13 @@
         <v>550372</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4177,13 @@
         <v>2978343</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>2058</v>
@@ -4132,33 +4192,33 @@
         <v>2129364</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>4966</v>
       </c>
       <c r="N35" s="7">
-        <v>5107707</v>
+        <v>5107708</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +4237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA47998E-878C-48CF-9DFD-166C45A64B18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C735E430-6879-4777-9B5C-6687C6B774E4}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4194,7 +4254,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4301,13 +4361,13 @@
         <v>730661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>569</v>
@@ -4316,13 +4376,13 @@
         <v>612520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M4" s="7">
         <v>1246</v>
@@ -4331,13 +4391,13 @@
         <v>1343181</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4412,13 @@
         <v>24378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4373,7 +4433,7 @@
         <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -4382,13 +4442,13 @@
         <v>26472</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4463,13 @@
         <v>2029</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4418,13 +4478,13 @@
         <v>1977</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>249</v>
+        <v>94</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -4439,7 +4499,7 @@
         <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4514,13 @@
         <v>3290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4469,13 +4529,13 @@
         <v>2029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4487,10 +4547,10 @@
         <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4565,13 @@
         <v>22620</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -4520,13 +4580,13 @@
         <v>9215</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -4535,13 +4595,13 @@
         <v>31835</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,13 +4616,13 @@
         <v>10037</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -4571,13 +4631,13 @@
         <v>5235</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -4586,19 +4646,19 @@
         <v>15272</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7">
         <v>150</v>
@@ -4607,13 +4667,13 @@
         <v>156287</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>92</v>
@@ -4622,13 +4682,13 @@
         <v>99599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>242</v>
@@ -4637,13 +4697,13 @@
         <v>255885</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4718,13 @@
         <v>949303</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>681</v>
@@ -4673,13 +4733,13 @@
         <v>732668</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>1566</v>
@@ -4688,18 +4748,18 @@
         <v>1681971</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4711,13 +4771,13 @@
         <v>1345475</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>1041</v>
@@ -4726,13 +4786,13 @@
         <v>1126190</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>2306</v>
@@ -4741,13 +4801,13 @@
         <v>2471664</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4822,13 @@
         <v>92262</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4777,13 +4837,13 @@
         <v>29681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>109</v>
@@ -4792,13 +4852,13 @@
         <v>121943</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4873,13 @@
         <v>18297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4831,10 +4891,10 @@
         <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -4843,13 +4903,13 @@
         <v>26675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>97</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,10 +4927,10 @@
         <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -4879,13 +4939,13 @@
         <v>2058</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -4897,10 +4957,10 @@
         <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4975,13 @@
         <v>57380</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>29</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -4930,13 +4990,13 @@
         <v>22317</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -4945,13 +5005,13 @@
         <v>79697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +5026,13 @@
         <v>18399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4981,13 +5041,13 @@
         <v>9957</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -4996,19 +5056,19 @@
         <v>28356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7">
         <v>184</v>
@@ -5017,13 +5077,13 @@
         <v>193831</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -5032,13 +5092,13 @@
         <v>105436</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -5047,13 +5107,13 @@
         <v>299267</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5128,13 @@
         <v>1735551</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>1203</v>
@@ -5083,13 +5143,13 @@
         <v>1304016</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>2833</v>
@@ -5098,18 +5158,18 @@
         <v>3039567</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5121,13 +5181,13 @@
         <v>301203</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>296</v>
@@ -5136,13 +5196,13 @@
         <v>328718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>569</v>
@@ -5151,13 +5211,13 @@
         <v>629921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5232,13 @@
         <v>55719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -5187,10 +5247,10 @@
         <v>16664</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>327</v>
+        <v>182</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>329</v>
@@ -5223,10 +5283,10 @@
         <v>6870</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>333</v>
@@ -5238,13 +5298,13 @@
         <v>3180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -5253,13 +5313,13 @@
         <v>10049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5334,13 @@
         <v>13157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>339</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -5289,13 +5349,13 @@
         <v>1200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -5304,13 +5364,13 @@
         <v>14358</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>260</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5385,13 @@
         <v>23304</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>346</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -5340,13 +5400,13 @@
         <v>8874</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -5355,13 +5415,13 @@
         <v>32178</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>342</v>
+        <v>246</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>343</v>
+        <v>198</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>344</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5436,13 @@
         <v>11302</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5391,13 +5451,13 @@
         <v>3020</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>348</v>
+        <v>57</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5406,10 +5466,10 @@
         <v>14321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>351</v>
@@ -5418,7 +5478,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7">
         <v>32</v>
@@ -5445,10 +5505,10 @@
         <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -5457,13 +5517,13 @@
         <v>63842</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5538,13 @@
         <v>447260</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7">
         <v>349</v>
@@ -5493,13 +5553,13 @@
         <v>389793</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>752</v>
@@ -5508,13 +5568,13 @@
         <v>837053</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5591,13 @@
         <v>2377338</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>1906</v>
@@ -5546,28 +5606,28 @@
         <v>2067429</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M28" s="7">
         <v>4121</v>
       </c>
       <c r="N28" s="7">
-        <v>4444766</v>
+        <v>4444767</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>19</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5642,13 @@
         <v>172360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5597,13 +5657,13 @@
         <v>48438</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -5612,13 +5672,13 @@
         <v>220798</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5693,13 @@
         <v>27197</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>60</v>
+        <v>379</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>376</v>
+        <v>58</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -5648,13 +5708,13 @@
         <v>13535</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>249</v>
+        <v>380</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -5663,13 +5723,13 @@
         <v>40731</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>170</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5744,13 @@
         <v>26354</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>289</v>
+        <v>381</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -5699,13 +5759,13 @@
         <v>5287</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -5717,10 +5777,10 @@
         <v>97</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>380</v>
+        <v>91</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>379</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,10 +5798,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>382</v>
+        <v>142</v>
       </c>
       <c r="H32" s="7">
         <v>38</v>
@@ -5750,13 +5810,13 @@
         <v>40405</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>383</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>384</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>385</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
         <v>137</v>
@@ -5765,7 +5825,7 @@
         <v>143710</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>178</v>
+        <v>385</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>386</v>
@@ -5786,7 +5846,7 @@
         <v>39738</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>388</v>
@@ -5801,13 +5861,13 @@
         <v>18212</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>147</v>
+        <v>391</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M33" s="7">
         <v>52</v>
@@ -5816,19 +5876,19 @@
         <v>57950</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>148</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="7">
         <v>366</v>
@@ -5837,13 +5897,13 @@
         <v>385823</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H34" s="7">
         <v>212</v>
@@ -5852,13 +5912,13 @@
         <v>233172</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M34" s="7">
         <v>578</v>
@@ -5867,13 +5927,13 @@
         <v>618995</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5948,13 @@
         <v>3132114</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>2233</v>
@@ -5903,33 +5963,33 @@
         <v>2426478</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>5151</v>
       </c>
       <c r="N35" s="7">
-        <v>5558591</v>
+        <v>5558592</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5948,7 +6008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FA94C5-7815-4EFC-B3F5-EFADE302EAF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267C98CE-862B-4013-9504-3D247AC91106}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5965,7 +6025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6072,13 +6132,13 @@
         <v>579207</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>402</v>
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>422</v>
@@ -6087,13 +6147,13 @@
         <v>454461</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>1004</v>
@@ -6102,13 +6162,13 @@
         <v>1033668</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>410</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6183,13 @@
         <v>24594</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>413</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6138,13 +6198,13 @@
         <v>3814</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>295</v>
+        <v>390</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -6153,13 +6213,13 @@
         <v>28408</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,13 +6234,13 @@
         <v>1578</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6195,7 +6255,7 @@
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6204,13 +6264,13 @@
         <v>2914</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6285,13 @@
         <v>1662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6246,7 +6306,7 @@
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6255,13 +6315,13 @@
         <v>2621</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>302</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,13 +6336,13 @@
         <v>13354</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6291,13 +6351,13 @@
         <v>3734</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -6306,13 +6366,13 @@
         <v>17088</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>424</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6387,13 @@
         <v>7406</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>419</v>
+        <v>86</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>420</v>
+        <v>91</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>153</v>
+        <v>260</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6342,13 +6402,13 @@
         <v>3429</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>421</v>
+        <v>292</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -6357,19 +6417,19 @@
         <v>10835</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>379</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>422</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>423</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7">
         <v>109</v>
@@ -6378,13 +6438,13 @@
         <v>104942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -6393,13 +6453,13 @@
         <v>41712</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -6408,13 +6468,13 @@
         <v>146654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6489,13 @@
         <v>732744</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>471</v>
@@ -6444,13 +6504,13 @@
         <v>509445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>1212</v>
@@ -6459,18 +6519,18 @@
         <v>1242189</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6482,7 +6542,7 @@
         <v>1451479</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>434</v>
@@ -6536,10 +6596,10 @@
         <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6548,13 +6608,13 @@
         <v>20050</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -6563,10 +6623,10 @@
         <v>96031</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>447</v>
@@ -6587,10 +6647,10 @@
         <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6605,7 +6665,7 @@
         <v>34</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -6614,13 +6674,13 @@
         <v>14069</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6695,13 @@
         <v>15765</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -6656,7 +6716,7 @@
         <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
       <c r="M15" s="7">
         <v>14</v>
@@ -6665,13 +6725,13 @@
         <v>17309</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6746,13 @@
         <v>42662</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -6701,10 +6761,10 @@
         <v>19855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>454</v>
@@ -6716,13 +6776,13 @@
         <v>62518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>47</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6797,13 @@
         <v>15432</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>395</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6752,13 +6812,13 @@
         <v>9877</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>457</v>
+        <v>147</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6767,19 +6827,19 @@
         <v>25309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>39</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7">
         <v>209</v>
@@ -6788,13 +6848,13 @@
         <v>219315</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>124</v>
@@ -6803,13 +6863,13 @@
         <v>130581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>333</v>
@@ -6818,13 +6878,13 @@
         <v>349897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,13 +6899,13 @@
         <v>1832560</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>1368</v>
@@ -6854,13 +6914,13 @@
         <v>1422116</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>3091</v>
@@ -6869,18 +6929,18 @@
         <v>3254677</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6892,13 +6952,13 @@
         <v>346626</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>383</v>
@@ -6907,28 +6967,28 @@
         <v>399744</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>702</v>
       </c>
       <c r="N20" s="7">
-        <v>746370</v>
+        <v>746369</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6943,13 +7003,13 @@
         <v>51631</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -6958,13 +7018,13 @@
         <v>23433</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>286</v>
+        <v>483</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -6973,13 +7033,13 @@
         <v>75064</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>480</v>
+        <v>121</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>228</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +7054,13 @@
         <v>6542</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>482</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7009,13 +7069,13 @@
         <v>4913</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>86</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -7024,13 +7084,13 @@
         <v>11454</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7105,13 @@
         <v>4667</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>348</v>
+        <v>208</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7060,13 +7120,13 @@
         <v>1985</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>493</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -7075,13 +7135,13 @@
         <v>6652</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>483</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7096,13 +7156,13 @@
         <v>15273</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -7111,13 +7171,13 @@
         <v>13804</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>264</v>
+        <v>498</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>482</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -7126,13 +7186,13 @@
         <v>29076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>490</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7207,13 @@
         <v>9530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>500</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7162,13 +7222,13 @@
         <v>976</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>393</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -7180,16 +7240,16 @@
         <v>99</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7">
         <v>56</v>
@@ -7198,13 +7258,13 @@
         <v>61488</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -7213,13 +7273,13 @@
         <v>32909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>505</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="M26" s="7">
         <v>87</v>
@@ -7228,13 +7288,13 @@
         <v>94398</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7309,13 @@
         <v>495756</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7">
         <v>456</v>
@@ -7264,28 +7324,28 @@
         <v>477764</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>908</v>
       </c>
       <c r="N27" s="7">
-        <v>973520</v>
+        <v>973519</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7299,16 +7359,16 @@
         <v>2267</v>
       </c>
       <c r="D28" s="7">
-        <v>2377313</v>
+        <v>2377312</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="H28" s="7">
         <v>2000</v>
@@ -7317,13 +7377,13 @@
         <v>2092269</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M28" s="7">
         <v>4267</v>
@@ -7332,13 +7392,13 @@
         <v>4469582</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,13 +7413,13 @@
         <v>152206</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="H29" s="7">
         <v>43</v>
@@ -7368,13 +7428,13 @@
         <v>47297</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>511</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7">
         <v>182</v>
@@ -7383,13 +7443,13 @@
         <v>199503</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>512</v>
+        <v>218</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>509</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7407,10 +7467,10 @@
         <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>249</v>
+        <v>347</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -7419,13 +7479,13 @@
         <v>8392</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>418</v>
+        <v>295</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>27</v>
@@ -7434,13 +7494,13 @@
         <v>28438</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>514</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7515,13 @@
         <v>22093</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>391</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7473,10 +7533,10 @@
         <v>41</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>38</v>
+        <v>526</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -7485,13 +7545,13 @@
         <v>26582</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>36</v>
+        <v>527</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7566,13 @@
         <v>71289</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>416</v>
+        <v>528</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>335</v>
+        <v>149</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -7521,13 +7581,13 @@
         <v>37393</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>285</v>
+        <v>415</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="M32" s="7">
         <v>102</v>
@@ -7536,13 +7596,13 @@
         <v>108683</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>516</v>
+        <v>26</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>49</v>
+        <v>530</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>517</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7617,13 @@
         <v>32367</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>377</v>
+        <v>157</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>106</v>
+        <v>531</v>
       </c>
       <c r="H33" s="7">
         <v>13</v>
@@ -7572,13 +7632,13 @@
         <v>14283</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>519</v>
+        <v>96</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>520</v>
+        <v>263</v>
       </c>
       <c r="M33" s="7">
         <v>43</v>
@@ -7587,19 +7647,19 @@
         <v>46650</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>521</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="7">
         <v>374</v>
@@ -7608,13 +7668,13 @@
         <v>385746</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>66</v>
+        <v>532</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H34" s="7">
         <v>193</v>
@@ -7623,13 +7683,13 @@
         <v>205202</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>136</v>
+        <v>535</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="M34" s="7">
         <v>567</v>
@@ -7638,13 +7698,13 @@
         <v>590948</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,16 +7716,16 @@
         <v>2916</v>
       </c>
       <c r="D35" s="7">
-        <v>3061061</v>
+        <v>3061060</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>2295</v>
@@ -7674,13 +7734,13 @@
         <v>2409325</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>5211</v>
@@ -7689,18 +7749,18 @@
         <v>5470386</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7719,7 +7779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6D23AB-E3C8-4BE3-87D1-821A9FF7C470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C39CE86-AB85-4B25-8DC4-EAD2CE37F168}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7736,7 +7796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7843,13 +7903,13 @@
         <v>396120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="H4" s="7">
         <v>671</v>
@@ -7858,13 +7918,13 @@
         <v>380119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M4" s="7">
         <v>1172</v>
@@ -7873,13 +7933,13 @@
         <v>776240</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>535</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7954,13 @@
         <v>18492</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>454</v>
+        <v>549</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -7912,10 +7972,10 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -7924,13 +7984,13 @@
         <v>21399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>531</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>540</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,7 +8011,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7960,13 +8020,13 @@
         <v>431</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>201</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -7981,7 +8041,7 @@
         <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +8056,13 @@
         <v>2465</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>201</v>
+        <v>457</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>450</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>553</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -8011,13 +8071,13 @@
         <v>2495</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -8026,13 +8086,13 @@
         <v>4960</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>450</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>371</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8107,13 @@
         <v>10691</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
@@ -8062,13 +8122,13 @@
         <v>7889</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>383</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -8077,13 +8137,13 @@
         <v>18579</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>421</v>
+        <v>557</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8158,13 @@
         <v>5646</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>457</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>545</v>
+        <v>386</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -8119,7 +8179,7 @@
         <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>304</v>
+        <v>102</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -8128,19 +8188,19 @@
         <v>6345</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="7">
         <v>127</v>
@@ -8149,13 +8209,13 @@
         <v>96939</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -8164,13 +8224,13 @@
         <v>77439</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -8179,13 +8239,13 @@
         <v>174378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,13 +8260,13 @@
         <v>531154</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>827</v>
@@ -8215,13 +8275,13 @@
         <v>471979</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>1507</v>
@@ -8230,18 +8290,18 @@
         <v>1003133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -8253,13 +8313,13 @@
         <v>1388042</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>1942</v>
@@ -8268,13 +8328,13 @@
         <v>1475156</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="M12" s="7">
         <v>3304</v>
@@ -8283,13 +8343,13 @@
         <v>2863199</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8304,13 +8364,13 @@
         <v>151011</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -8319,13 +8379,13 @@
         <v>44421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>566</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
@@ -8334,13 +8394,13 @@
         <v>195432</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,7 +8421,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -8370,13 +8430,13 @@
         <v>4058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -8385,13 +8445,13 @@
         <v>6379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8406,13 +8466,13 @@
         <v>66092</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -8421,13 +8481,13 @@
         <v>8283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
@@ -8436,13 +8496,13 @@
         <v>74374</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8463,7 +8523,7 @@
         <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>589</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
@@ -8472,13 +8532,13 @@
         <v>46146</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -8487,13 +8547,13 @@
         <v>125904</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8508,13 +8568,13 @@
         <v>21754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>594</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -8523,10 +8583,10 @@
         <v>4872</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>580</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>97</v>
@@ -8538,19 +8598,19 @@
         <v>26626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7">
         <v>227</v>
@@ -8559,13 +8619,13 @@
         <v>214943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="H18" s="7">
         <v>232</v>
@@ -8574,13 +8634,13 @@
         <v>147982</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="M18" s="7">
         <v>459</v>
@@ -8589,13 +8649,13 @@
         <v>362925</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8610,13 +8670,13 @@
         <v>1923922</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>2316</v>
@@ -8625,13 +8685,13 @@
         <v>1730918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>4192</v>
@@ -8640,18 +8700,18 @@
         <v>3654840</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8663,13 +8723,13 @@
         <v>383701</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="H20" s="7">
         <v>716</v>
@@ -8678,13 +8738,13 @@
         <v>497910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M20" s="7">
         <v>1105</v>
@@ -8693,13 +8753,13 @@
         <v>881610</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8714,13 +8774,13 @@
         <v>96955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -8729,13 +8789,13 @@
         <v>61356</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="M21" s="7">
         <v>184</v>
@@ -8744,13 +8804,13 @@
         <v>158311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8765,13 +8825,13 @@
         <v>12518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>286</v>
+        <v>619</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -8780,13 +8840,13 @@
         <v>2788</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>450</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -8795,13 +8855,13 @@
         <v>15306</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>606</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8816,13 +8876,13 @@
         <v>17652</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>303</v>
+        <v>622</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -8831,13 +8891,13 @@
         <v>8521</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>514</v>
+        <v>296</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>624</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -8846,13 +8906,13 @@
         <v>26173</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>338</v>
+        <v>625</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>452</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8867,13 +8927,13 @@
         <v>21673</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>611</v>
+        <v>201</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
@@ -8882,13 +8942,13 @@
         <v>17859</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>628</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>389</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>613</v>
+        <v>48</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -8897,13 +8957,13 @@
         <v>39533</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8918,13 +8978,13 @@
         <v>12050</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>47</v>
+        <v>455</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>615</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8933,13 +8993,13 @@
         <v>3418</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>202</v>
+        <v>525</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -8948,19 +9008,19 @@
         <v>15468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="7">
         <v>88</v>
@@ -8969,13 +9029,13 @@
         <v>82863</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
@@ -8984,13 +9044,13 @@
         <v>65527</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>231</v>
+        <v>633</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>634</v>
       </c>
       <c r="M26" s="7">
         <v>186</v>
@@ -8999,13 +9059,13 @@
         <v>148390</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9020,13 +9080,13 @@
         <v>627412</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H27" s="7">
         <v>946</v>
@@ -9035,13 +9095,13 @@
         <v>657379</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>1594</v>
@@ -9050,13 +9110,13 @@
         <v>1284790</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,13 +9133,13 @@
         <v>2167863</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="H28" s="7">
         <v>3329</v>
@@ -9088,13 +9148,13 @@
         <v>2353186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="M28" s="7">
         <v>5581</v>
@@ -9103,13 +9163,13 @@
         <v>4521048</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9124,13 +9184,13 @@
         <v>266458</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>497</v>
+        <v>647</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="H29" s="7">
         <v>150</v>
@@ -9139,13 +9199,13 @@
         <v>108684</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="M29" s="7">
         <v>428</v>
@@ -9154,13 +9214,13 @@
         <v>375142</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9181,7 +9241,7 @@
         <v>31</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -9190,13 +9250,13 @@
         <v>7276</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>580</v>
+        <v>203</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -9211,7 +9271,7 @@
         <v>98</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>223</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9226,13 +9286,13 @@
         <v>86209</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>615</v>
+        <v>347</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -9241,10 +9301,10 @@
         <v>19298</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>210</v>
+        <v>451</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>99</v>
@@ -9256,13 +9316,13 @@
         <v>105507</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>151</v>
+        <v>656</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>90</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9277,13 +9337,13 @@
         <v>112122</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>658</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>387</v>
+        <v>659</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="H32" s="7">
         <v>92</v>
@@ -9292,13 +9352,13 @@
         <v>71894</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>642</v>
+        <v>663</v>
       </c>
       <c r="M32" s="7">
         <v>229</v>
@@ -9307,10 +9367,10 @@
         <v>184016</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>442</v>
@@ -9328,13 +9388,13 @@
         <v>39450</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>251</v>
+        <v>553</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H33" s="7">
         <v>16</v>
@@ -9343,10 +9403,10 @@
         <v>8989</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>39</v>
@@ -9358,10 +9418,10 @@
         <v>48439</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>99</v>
@@ -9370,7 +9430,7 @@
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="7">
         <v>442</v>
@@ -9379,13 +9439,13 @@
         <v>394745</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>644</v>
+        <v>665</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
       <c r="H34" s="7">
         <v>464</v>
@@ -9394,13 +9454,13 @@
         <v>290948</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>648</v>
+        <v>169</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="M34" s="7">
         <v>906</v>
@@ -9409,13 +9469,13 @@
         <v>685693</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9430,13 +9490,13 @@
         <v>3082487</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>4089</v>
@@ -9445,13 +9505,13 @@
         <v>2860276</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>7293</v>
@@ -9460,18 +9520,18 @@
         <v>5942763</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P63C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P63C-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B28E68-1353-47D7-81D9-5B12E0ADDE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8EFD184-A3F1-4AC7-BF3B-89ACA8557B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F2A8177-BB5F-48DA-A445-9F76FE4F823A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{49E6597B-A24F-4A6D-974E-718D5D18B068}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1628,403 +1628,403 @@
     <t>Población según la categoría profesional que tiene o tenía en la empresa donde trabaja o trabajaba en 2023 (Tasa respuesta: 83,56%)</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C323F8-8314-4FBC-98E2-F1A5BD59AA22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A1A2D3-FC02-4886-AC33-9069A1F59B44}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3764,7 +3764,7 @@
         <v>888</v>
       </c>
       <c r="N27" s="7">
-        <v>933150</v>
+        <v>933149</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>71</v>
@@ -4207,7 +4207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D0F87D-71E1-4580-9EC1-3C16DF690FE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD2CA59-3C41-46F3-9DDA-85B64814A082}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5573,7 +5573,7 @@
         <v>1906</v>
       </c>
       <c r="I28" s="7">
-        <v>2067429</v>
+        <v>2067428</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>360</v>
@@ -5588,7 +5588,7 @@
         <v>4121</v>
       </c>
       <c r="N28" s="7">
-        <v>4444767</v>
+        <v>4444766</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>363</v>
@@ -5930,7 +5930,7 @@
         <v>2233</v>
       </c>
       <c r="I35" s="7">
-        <v>2426478</v>
+        <v>2426477</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>71</v>
@@ -5945,7 +5945,7 @@
         <v>5151</v>
       </c>
       <c r="N35" s="7">
-        <v>5558592</v>
+        <v>5558591</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>71</v>
@@ -5978,7 +5978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BBFC2D-6CA5-4AA7-BF98-4247C35C43CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549C5C6B-A285-4CB9-99BA-45F01D9C7742}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6509,7 +6509,7 @@
         <v>1366</v>
       </c>
       <c r="D12" s="7">
-        <v>1451479</v>
+        <v>1451480</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>427</v>
@@ -6866,7 +6866,7 @@
         <v>1723</v>
       </c>
       <c r="D19" s="7">
-        <v>1832560</v>
+        <v>1832561</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>71</v>
@@ -6881,7 +6881,7 @@
         <v>1368</v>
       </c>
       <c r="I19" s="7">
-        <v>1422116</v>
+        <v>1422117</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>71</v>
@@ -7329,7 +7329,7 @@
         <v>2267</v>
       </c>
       <c r="D28" s="7">
-        <v>2377312</v>
+        <v>2377313</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>498</v>
@@ -7686,7 +7686,7 @@
         <v>2916</v>
       </c>
       <c r="D35" s="7">
-        <v>3061060</v>
+        <v>3061061</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>71</v>
@@ -7749,7 +7749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65DA3B3-67E9-494B-ADFB-A1F84909CE58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF992F3-19AF-4FBD-8375-AD027478518F}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7870,7 +7870,7 @@
         <v>501</v>
       </c>
       <c r="D4" s="7">
-        <v>396120</v>
+        <v>376808</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>529</v>
@@ -7885,7 +7885,7 @@
         <v>671</v>
       </c>
       <c r="I4" s="7">
-        <v>380119</v>
+        <v>346755</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>532</v>
@@ -7900,7 +7900,7 @@
         <v>1172</v>
       </c>
       <c r="N4" s="7">
-        <v>776240</v>
+        <v>723563</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>535</v>
@@ -7921,28 +7921,28 @@
         <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>18492</v>
+        <v>16744</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>538</v>
+        <v>408</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>539</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>2907</v>
+        <v>2668</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>58</v>
@@ -7951,16 +7951,16 @@
         <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>21399</v>
+        <v>19412</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>538</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>541</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>542</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>800</v>
+        <v>765</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>25</v>
@@ -7981,13 +7981,13 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>94</v>
@@ -7996,22 +7996,22 @@
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1231</v>
+        <v>1170</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>148</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,7 +8023,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2465</v>
+        <v>2326</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>386</v>
@@ -8032,37 +8032,37 @@
         <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>2495</v>
+        <v>1567</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>4960</v>
+        <v>3892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,46 +8074,46 @@
         <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>10691</v>
+        <v>10223</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>544</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>545</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>7889</v>
+        <v>7426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>379</v>
+        <v>542</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>18579</v>
+        <v>17649</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>547</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,46 +8125,46 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>5646</v>
+        <v>5214</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>101</v>
+        <v>478</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>443</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>539</v>
+        <v>108</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>699</v>
+        <v>612</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>453</v>
+        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>6345</v>
+        <v>5826</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>100</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,46 +8176,46 @@
         <v>127</v>
       </c>
       <c r="D10" s="7">
-        <v>96939</v>
+        <v>92975</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
       </c>
       <c r="I10" s="7">
-        <v>77439</v>
+        <v>70434</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
       </c>
       <c r="N10" s="7">
-        <v>174378</v>
+        <v>163409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,7 +8227,7 @@
         <v>680</v>
       </c>
       <c r="D11" s="7">
-        <v>531154</v>
+        <v>505056</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -8242,7 +8242,7 @@
         <v>827</v>
       </c>
       <c r="I11" s="7">
-        <v>471979</v>
+        <v>429866</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>71</v>
@@ -8257,7 +8257,7 @@
         <v>1507</v>
       </c>
       <c r="N11" s="7">
-        <v>1003133</v>
+        <v>934921</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>71</v>
@@ -8280,46 +8280,46 @@
         <v>1362</v>
       </c>
       <c r="D12" s="7">
-        <v>1388042</v>
+        <v>1344903</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H12" s="7">
         <v>1942</v>
       </c>
       <c r="I12" s="7">
-        <v>1475156</v>
+        <v>1489691</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M12" s="7">
         <v>3304</v>
       </c>
       <c r="N12" s="7">
-        <v>2863199</v>
+        <v>2834594</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,46 +8331,46 @@
         <v>154</v>
       </c>
       <c r="D13" s="7">
-        <v>151011</v>
+        <v>137924</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>563</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>44421</v>
+        <v>39231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>545</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>214</v>
       </c>
       <c r="N13" s="7">
-        <v>195432</v>
+        <v>177155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>206</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8382,46 +8382,46 @@
         <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>2322</v>
+        <v>1932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>4058</v>
+        <v>3630</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>514</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>6379</v>
+        <v>5562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>25</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>571</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>452</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8433,46 +8433,46 @@
         <v>15</v>
       </c>
       <c r="D15" s="7">
-        <v>66092</v>
+        <v>258629</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>572</v>
+        <v>222</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>8283</v>
+        <v>7550</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>415</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>442</v>
+        <v>199</v>
       </c>
       <c r="M15" s="7">
         <v>28</v>
       </c>
       <c r="N15" s="7">
-        <v>74374</v>
+        <v>266179</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>524</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8484,46 +8484,46 @@
         <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>79758</v>
+        <v>75319</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>435</v>
+        <v>570</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>571</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H16" s="7">
         <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>46146</v>
+        <v>97747</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
       </c>
       <c r="N16" s="7">
-        <v>125904</v>
+        <v>173066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8535,46 +8535,46 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>21754</v>
+        <v>19954</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>4872</v>
+        <v>4541</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>580</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>581</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>26626</v>
+        <v>24496</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8586,46 +8586,46 @@
         <v>227</v>
       </c>
       <c r="D18" s="7">
-        <v>214943</v>
+        <v>202562</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>227</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>582</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>66</v>
+        <v>583</v>
       </c>
       <c r="H18" s="7">
         <v>232</v>
       </c>
       <c r="I18" s="7">
-        <v>147982</v>
+        <v>134635</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M18" s="7">
         <v>459</v>
       </c>
       <c r="N18" s="7">
-        <v>362925</v>
+        <v>337196</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8637,7 +8637,7 @@
         <v>1876</v>
       </c>
       <c r="D19" s="7">
-        <v>1923922</v>
+        <v>2041223</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>71</v>
@@ -8652,7 +8652,7 @@
         <v>2316</v>
       </c>
       <c r="I19" s="7">
-        <v>1730918</v>
+        <v>1777025</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>71</v>
@@ -8667,7 +8667,7 @@
         <v>4192</v>
       </c>
       <c r="N19" s="7">
-        <v>3654840</v>
+        <v>3818248</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>71</v>
@@ -8690,46 +8690,46 @@
         <v>389</v>
       </c>
       <c r="D20" s="7">
-        <v>383701</v>
+        <v>378222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H20" s="7">
         <v>716</v>
       </c>
       <c r="I20" s="7">
-        <v>497910</v>
+        <v>467129</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>1105</v>
       </c>
       <c r="N20" s="7">
-        <v>881610</v>
+        <v>845352</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8741,46 +8741,46 @@
         <v>100</v>
       </c>
       <c r="D21" s="7">
-        <v>96955</v>
+        <v>88291</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
       </c>
       <c r="I21" s="7">
-        <v>61356</v>
+        <v>53779</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>601</v>
+        <v>190</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M21" s="7">
         <v>184</v>
       </c>
       <c r="N21" s="7">
-        <v>158311</v>
+        <v>142070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>388</v>
+        <v>604</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>604</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8792,22 +8792,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>12518</v>
+        <v>11997</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>368</v>
+        <v>517</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>605</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>606</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>2788</v>
+        <v>2550</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>92</v>
@@ -8816,22 +8816,22 @@
         <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
       </c>
       <c r="N22" s="7">
-        <v>15306</v>
+        <v>14546</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>606</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8843,46 +8843,46 @@
         <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>17652</v>
+        <v>16187</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
       </c>
       <c r="I23" s="7">
-        <v>8521</v>
+        <v>7569</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>608</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>480</v>
+        <v>609</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
       </c>
       <c r="N23" s="7">
-        <v>26173</v>
+        <v>23756</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>491</v>
+        <v>155</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>192</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8894,46 +8894,46 @@
         <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>21673</v>
+        <v>21074</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>539</v>
+        <v>52</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>17859</v>
+        <v>16136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>613</v>
+        <v>511</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>615</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
       </c>
       <c r="N24" s="7">
-        <v>39533</v>
+        <v>37210</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>615</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>616</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>142</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8945,37 +8945,37 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>12050</v>
+        <v>11315</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>449</v>
+        <v>618</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>619</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>616</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>3418</v>
+        <v>3186</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>490</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>15468</v>
+        <v>14501</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>332</v>
@@ -8984,7 +8984,7 @@
         <v>375</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8996,46 +8996,46 @@
         <v>88</v>
       </c>
       <c r="D26" s="7">
-        <v>82863</v>
+        <v>76233</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H26" s="7">
         <v>98</v>
       </c>
       <c r="I26" s="7">
-        <v>65527</v>
+        <v>59600</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>621</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M26" s="7">
         <v>186</v>
       </c>
       <c r="N26" s="7">
-        <v>148390</v>
+        <v>135833</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>626</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9047,7 +9047,7 @@
         <v>648</v>
       </c>
       <c r="D27" s="7">
-        <v>627412</v>
+        <v>603320</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>71</v>
@@ -9062,7 +9062,7 @@
         <v>946</v>
       </c>
       <c r="I27" s="7">
-        <v>657379</v>
+        <v>609948</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>71</v>
@@ -9077,7 +9077,7 @@
         <v>1594</v>
       </c>
       <c r="N27" s="7">
-        <v>1284790</v>
+        <v>1213268</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>71</v>
@@ -9100,46 +9100,46 @@
         <v>2252</v>
       </c>
       <c r="D28" s="7">
-        <v>2167863</v>
+        <v>2099933</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H28" s="7">
         <v>3329</v>
       </c>
       <c r="I28" s="7">
-        <v>2353186</v>
+        <v>2303575</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M28" s="7">
         <v>5581</v>
       </c>
       <c r="N28" s="7">
-        <v>4521048</v>
+        <v>4403508</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9151,46 +9151,46 @@
         <v>278</v>
       </c>
       <c r="D29" s="7">
-        <v>266458</v>
+        <v>242959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>636</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H29" s="7">
         <v>150</v>
       </c>
       <c r="I29" s="7">
-        <v>108684</v>
+        <v>95678</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>51</v>
+        <v>641</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M29" s="7">
         <v>428</v>
       </c>
       <c r="N29" s="7">
-        <v>375142</v>
+        <v>338637</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>641</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9202,46 +9202,46 @@
         <v>17</v>
       </c>
       <c r="D30" s="7">
-        <v>15640</v>
+        <v>14694</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>643</v>
+        <v>100</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>104</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>7276</v>
+        <v>6584</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
       </c>
       <c r="N30" s="7">
-        <v>22917</v>
+        <v>21278</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>100</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9253,13 +9253,13 @@
         <v>34</v>
       </c>
       <c r="D31" s="7">
-        <v>86209</v>
+        <v>277142</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>644</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>645</v>
@@ -9268,31 +9268,31 @@
         <v>26</v>
       </c>
       <c r="I31" s="7">
-        <v>19298</v>
+        <v>16685</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>42</v>
+        <v>519</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="M31" s="7">
         <v>60</v>
       </c>
       <c r="N31" s="7">
-        <v>105507</v>
+        <v>293827</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9304,43 +9304,43 @@
         <v>137</v>
       </c>
       <c r="D32" s="7">
-        <v>112122</v>
+        <v>106617</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>647</v>
+        <v>338</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>648</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>344</v>
+        <v>649</v>
       </c>
       <c r="H32" s="7">
         <v>92</v>
       </c>
       <c r="I32" s="7">
-        <v>71894</v>
+        <v>121309</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M32" s="7">
         <v>229</v>
       </c>
       <c r="N32" s="7">
-        <v>184016</v>
+        <v>227926</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>542</v>
+        <v>22</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>651</v>
+        <v>576</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>652</v>
@@ -9355,46 +9355,46 @@
         <v>44</v>
       </c>
       <c r="D33" s="7">
-        <v>39450</v>
+        <v>36483</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>653</v>
+        <v>380</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>447</v>
+        <v>579</v>
       </c>
       <c r="H33" s="7">
         <v>16</v>
       </c>
       <c r="I33" s="7">
-        <v>8989</v>
+        <v>8339</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>335</v>
+        <v>653</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>411</v>
+        <v>293</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>490</v>
+        <v>39</v>
       </c>
       <c r="M33" s="7">
         <v>60</v>
       </c>
       <c r="N33" s="7">
-        <v>48439</v>
+        <v>44823</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>519</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>244</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9406,7 +9406,7 @@
         <v>442</v>
       </c>
       <c r="D34" s="7">
-        <v>394745</v>
+        <v>371770</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>654</v>
@@ -9421,13 +9421,13 @@
         <v>464</v>
       </c>
       <c r="I34" s="7">
-        <v>290948</v>
+        <v>264668</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>658</v>
@@ -9436,7 +9436,7 @@
         <v>906</v>
       </c>
       <c r="N34" s="7">
-        <v>685693</v>
+        <v>636438</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>659</v>
@@ -9457,7 +9457,7 @@
         <v>3204</v>
       </c>
       <c r="D35" s="7">
-        <v>3082487</v>
+        <v>3149599</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>71</v>
@@ -9472,7 +9472,7 @@
         <v>4089</v>
       </c>
       <c r="I35" s="7">
-        <v>2860276</v>
+        <v>2816839</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>71</v>
@@ -9487,7 +9487,7 @@
         <v>7293</v>
       </c>
       <c r="N35" s="7">
-        <v>5942762</v>
+        <v>5966437</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>71</v>
